--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -9,8 +9,10 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Generic" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Requirement" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Productdata" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForecastedAverageDemand" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ForcastedStandardDeviation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Capacity" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ProcessingTime" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -490,7 +492,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1210,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>34846</v>
+        <v>44278</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>3960.19</v>
+        <v>3855.05</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1239,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>7202</v>
+        <v>6040</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>644.5700000000001</v>
+        <v>814.5700000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1268,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>3108</v>
+        <v>2969</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>357.27</v>
+        <v>451.41</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1297,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>11800</v>
+        <v>14609</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>1524.84</v>
+        <v>1470.44</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1326,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>9106</v>
+        <v>11840</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>1764.63</v>
+        <v>1808.95</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1355,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5291</v>
+        <v>5170</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>888.64</v>
+        <v>833.45</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1384,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2079</v>
+        <v>3996</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>388.04</v>
+        <v>445.02</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1413,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>13025</v>
+        <v>12624</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>1880.77</v>
+        <v>1811.95</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1442,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>852</v>
+        <v>1261</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>144.21</v>
+        <v>116.22</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1471,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5567</v>
+        <v>5438</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>879.8</v>
+        <v>717.11</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1500,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2870</v>
+        <v>2935</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>335.57</v>
+        <v>458.23</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1529,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>12786</v>
+        <v>8420</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>1663.57</v>
+        <v>1354.88</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1558,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>14188</v>
+        <v>8976</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>1485.25</v>
+        <v>2073.87</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -1585,6 +1587,830 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I2" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>700</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I3" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>700</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>700</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>700</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I6" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>700</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I7" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>700</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H8" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I8" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>700</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>4000</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I9" t="n">
+        <v>8000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>700</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:14">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H2" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I2" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I3" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I4" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J4" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I5" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H6" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I6" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J6" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H7" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H8" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7500</v>
+      </c>
+      <c r="H9" t="n">
+        <v>3500</v>
+      </c>
+      <c r="I9" t="n">
+        <v>9000</v>
+      </c>
+      <c r="J9" t="n">
+        <v>1400</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1616,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>14400</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1624,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3600</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -1632,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28800</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -1640,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31320</v>
+        <v>15660</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -1648,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -1656,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1664,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>28800</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -1680,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>14400</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -1688,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10800</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -1696,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43200</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -1704,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46980</v>
+        <v>78300</v>
       </c>
     </row>
   </sheetData>
@@ -1712,7 +2538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1819,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -1866,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -1913,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -1960,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2007,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2054,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2101,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2195,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -2242,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -2289,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -2336,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>44278</v>
+        <v>27497</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>3855.05</v>
+        <v>7.605972882347419</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>6040</v>
+        <v>4611</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>814.5700000000001</v>
+        <v>1.395577978751433</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2969</v>
+        <v>2015</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>451.41</v>
+        <v>0.9451001380929527</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>14609</v>
+        <v>8099</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>1470.44</v>
+        <v>3.738587250075826</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11840</v>
+        <v>8957</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>1808.95</v>
+        <v>3.823288813513627</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5170</v>
+        <v>4226</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>833.45</v>
+        <v>1.563165906911231</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>3996</v>
+        <v>2199</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>445.02</v>
+        <v>0.8209261190135981</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>12624</v>
+        <v>8646</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>1811.95</v>
+        <v>2.641552203229971</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>1261</v>
+        <v>754</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>116.22</v>
+        <v>0.3254814995826544</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5438</v>
+        <v>4980</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>717.11</v>
+        <v>1.36182485245156</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2935</v>
+        <v>2043</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>458.23</v>
+        <v>0.8040407972600003</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>8420</v>
+        <v>9062</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>1354.88</v>
+        <v>3.45961482293984</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>8976</v>
+        <v>9103</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>2073.87</v>
+        <v>3.014789083435435</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163440</v>
+        <v>81720</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>57600</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2520</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36000</v>
+        <v>21600</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>14400</v>
+        <v>10800</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>14400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78300</v>
+        <v>62640</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>27497</v>
+        <v>31285</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>7.605972882347419</v>
+        <v>1180.534132246581</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4611</v>
+        <v>5547</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>1.395577978751433</v>
+        <v>286.2962880280181</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2015</v>
+        <v>2451</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9451001380929527</v>
+        <v>176.2221476876612</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>8099</v>
+        <v>10790</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>3.738587250075826</v>
+        <v>563.9060387366264</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>8957</v>
+        <v>12364</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>3.823288813513627</v>
+        <v>692.1314089568334</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>4226</v>
+        <v>5417</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>1.563165906911231</v>
+        <v>353.2410266944858</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2199</v>
+        <v>2136</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8209261190135981</v>
+        <v>167.4082473479562</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>8646</v>
+        <v>10798</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>2.641552203229971</v>
+        <v>1038.995902626219</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>754</v>
+        <v>947</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3254814995826544</v>
+        <v>50.7152912221669</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>4980</v>
+        <v>3473</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>1.36182485245156</v>
+        <v>255.0386574512006</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2043</v>
+        <v>1987</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>0.8040407972600003</v>
+        <v>143.5072980418232</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9062</v>
+        <v>7363</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>3.45961482293984</v>
+        <v>587.6682777129009</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>9103</v>
+        <v>8111</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>3.014789083435435</v>
+        <v>670.707841190187</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>81720</v>
+        <v>122580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>7200</v>
+        <v>18000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>21600</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>10800</v>
+        <v>3600</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>43200</v>
+        <v>72000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6300</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>31285</v>
+        <v>30096</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1180.534132246581</v>
+        <v>93.17889345133065</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>5547</v>
+        <v>4225</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>286.2962880280181</v>
+        <v>18.96498390785911</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>2451</v>
+        <v>1727</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>176.2221476876612</v>
+        <v>8.862178364105255</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>10790</v>
+        <v>6802</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>563.9060387366264</v>
+        <v>33.25352426821631</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>12364</v>
+        <v>11590</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>692.1314089568334</v>
+        <v>35.93362783444104</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5417</v>
+        <v>5827</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>353.2410266944858</v>
+        <v>19.60605704381867</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2136</v>
+        <v>2887</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>167.4082473479562</v>
+        <v>8.01256079575116</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>10798</v>
+        <v>9223</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>1038.995902626219</v>
+        <v>70.35393255989896</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>947</v>
+        <v>921</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>50.7152912221669</v>
+        <v>3.465163097689526</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>3473</v>
+        <v>5888</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>255.0386574512006</v>
+        <v>16.34149251468553</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>1987</v>
+        <v>2365</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>143.5072980418232</v>
+        <v>8.871904399848171</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7363</v>
+        <v>7806</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>587.6682777129009</v>
+        <v>36.76660394107898</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>8111</v>
+        <v>12877</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>670.707841190187</v>
+        <v>31.87531820902362</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122580</v>
+        <v>163440</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>36000</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>18000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>14400</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>15660</v>
+        <v>31320</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3600</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2520</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>28800</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>62640</v>
+        <v>46980</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>30096</v>
+        <v>54207</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>93.17889345133065</v>
+        <v>739.4164754229888</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>4225</v>
+        <v>11773</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>18.96498390785911</v>
+        <v>121.3818109770633</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>1727</v>
+        <v>5627</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>8.862178364105255</v>
+        <v>64.18107170959281</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>6802</v>
+        <v>17327</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>33.25352426821631</v>
+        <v>261.3689225982923</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>11590</v>
+        <v>19478</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>35.93362783444104</v>
+        <v>319.3286536424098</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>5827</v>
+        <v>11773</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>19.60605704381867</v>
+        <v>167.0004098848241</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2887</v>
+        <v>5627</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>8.01256079575116</v>
+        <v>76.10152004819632</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>9223</v>
+        <v>17327</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>70.35393255989896</v>
+        <v>507.6643813589426</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>921</v>
+        <v>2151</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>3.465163097689526</v>
+        <v>28.77433218125354</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>5888</v>
+        <v>11773</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>16.34149251468553</v>
+        <v>116.5598556801205</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>2365</v>
+        <v>5627</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>8.871904399848171</v>
+        <v>72.89775722312251</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>7806</v>
+        <v>17327</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>36.76660394107898</v>
+        <v>278.5663345179664</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>12877</v>
+        <v>19478</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>31.87531820902362</v>
+        <v>238.3798688753257</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>163440</v>
+        <v>204300</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>31320</v>
+        <v>62640</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7200</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>72000</v>
+        <v>14400</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>21600</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43200</v>
+        <v>57600</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>46980</v>
+        <v>78300</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1218,7 +1218,7 @@
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>739.4164754229888</v>
+        <v>638.9139176276739</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>121.3818109770633</v>
+        <v>157.8430441021744</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>64.18107170959281</v>
+        <v>82.69790540381157</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>261.3689225982923</v>
+        <v>239.2284179720286</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>319.3286536424098</v>
+        <v>279.3882481343423</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1363,7 +1363,7 @@
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>167.0004098848241</v>
+        <v>141.6256289462897</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1392,7 +1392,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>76.10152004819632</v>
+        <v>61.804466450357</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1421,7 +1421,7 @@
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>507.6643813589426</v>
+        <v>609.6600708941438</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1450,7 +1450,7 @@
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>28.77433218125354</v>
+        <v>23.2031799741058</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>116.5598556801205</v>
+        <v>126.8843070358463</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>72.89775722312251</v>
+        <v>61.67999695597756</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>278.5663345179664</v>
+        <v>247.4283436930528</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>238.3798688753257</v>
+        <v>326.5160147698538</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>204300</v>
+        <v>122580</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>28800</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>43200</v>
+        <v>28800</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>14400</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>14400</v>
+        <v>7200</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>6300</v>
+        <v>2520</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>28800</v>
+        <v>36000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>57600</v>
+        <v>43200</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>78300</v>
+        <v>62640</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>54207</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>638.9139176276739</v>
+        <v>1008.888888888889</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1241,13 +1241,13 @@
         <v>1</v>
       </c>
       <c r="C3" t="n">
-        <v>11773</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>157.8430441021744</v>
+        <v>205.6666666666666</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1270,13 +1270,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>5627</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>82.69790540381157</v>
+        <v>102.7777777777778</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1299,13 +1299,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>17327</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>239.2284179720286</v>
+        <v>410.4444444444443</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1328,13 +1328,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="n">
-        <v>19478</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>279.3882481343423</v>
+        <v>446.3583333333332</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>11773</v>
+        <v>40834</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>141.6256289462897</v>
+        <v>205.6666666666666</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>5627</v>
+        <v>19456</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>61.804466450357</v>
+        <v>102.7777777777778</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>17327</v>
+        <v>58601</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>609.6600708941438</v>
+        <v>820.8888888888887</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>2151</v>
+        <v>7482</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>23.2031799741058</v>
+        <v>35.91388888888888</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1473,13 +1473,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>11773</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>126.8843070358463</v>
+        <v>179</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1502,13 +1502,13 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>5627</v>
+        <v>0</v>
       </c>
       <c r="D12" t="n">
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>61.67999695597756</v>
+        <v>89.44444444444443</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1531,13 +1531,13 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>17327</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>247.4283436930528</v>
+        <v>357.111111111111</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1560,13 +1560,13 @@
         <v>1</v>
       </c>
       <c r="C14" t="n">
-        <v>19478</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>326.5160147698538</v>
+        <v>388.3583333333333</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>122580</v>
+        <v>908000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2442,7 +2442,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>7200</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>14400</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2458,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>28800</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>62640</v>
+        <v>348000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>36000</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>7200</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2490,7 +2490,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>14400</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2498,7 +2498,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>2520</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>36000</v>
+        <v>120000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10800</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>43200</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>62640</v>
+        <v>261000</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2739,7 +2739,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -2927,7 +2927,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2974,7 +2974,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Instances/02_Normal.xlsx
+++ b/Instances/02_Normal.xlsx
@@ -1212,13 +1212,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>91205</v>
       </c>
       <c r="D2" t="n">
         <v>0.032</v>
       </c>
       <c r="E2" t="n">
-        <v>1008.888888888889</v>
+        <v>544.8</v>
       </c>
       <c r="F2" t="n">
         <v>0.32</v>
@@ -1247,7 +1247,7 @@
         <v>0.03702</v>
       </c>
       <c r="E3" t="n">
-        <v>205.6666666666666</v>
+        <v>111.06</v>
       </c>
       <c r="F3" t="n">
         <v>0.3702</v>
@@ -1276,7 +1276,7 @@
         <v>0.03700000000000001</v>
       </c>
       <c r="E4" t="n">
-        <v>102.7777777777778</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="F4" t="n">
         <v>0.3700000000000001</v>
@@ -1305,7 +1305,7 @@
         <v>0.03694</v>
       </c>
       <c r="E5" t="n">
-        <v>410.4444444444443</v>
+        <v>221.64</v>
       </c>
       <c r="F5" t="n">
         <v>0.3694</v>
@@ -1334,7 +1334,7 @@
         <v>0.03694</v>
       </c>
       <c r="E6" t="n">
-        <v>446.3583333333332</v>
+        <v>241.0335</v>
       </c>
       <c r="F6" t="n">
         <v>0.3694</v>
@@ -1357,13 +1357,13 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>40834</v>
+        <v>17700</v>
       </c>
       <c r="D7" t="n">
         <v>0.03702</v>
       </c>
       <c r="E7" t="n">
-        <v>205.6666666666666</v>
+        <v>111.06</v>
       </c>
       <c r="F7" t="n">
         <v>0.3702</v>
@@ -1386,13 +1386,13 @@
         <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>19456</v>
+        <v>8660</v>
       </c>
       <c r="D8" t="n">
         <v>0.03700000000000001</v>
       </c>
       <c r="E8" t="n">
-        <v>102.7777777777778</v>
+        <v>55.50000000000001</v>
       </c>
       <c r="F8" t="n">
         <v>0.3700000000000001</v>
@@ -1415,13 +1415,13 @@
         <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>58601</v>
+        <v>30840</v>
       </c>
       <c r="D9" t="n">
         <v>0.07388</v>
       </c>
       <c r="E9" t="n">
-        <v>820.8888888888887</v>
+        <v>443.28</v>
       </c>
       <c r="F9" t="n">
         <v>0.7388</v>
@@ -1444,13 +1444,13 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>7482</v>
+        <v>3164</v>
       </c>
       <c r="D10" t="n">
         <v>0.03694</v>
       </c>
       <c r="E10" t="n">
-        <v>35.91388888888888</v>
+        <v>19.3935</v>
       </c>
       <c r="F10" t="n">
         <v>0.3694</v>
@@ -1479,7 +1479,7 @@
         <v>0.03222</v>
       </c>
       <c r="E11" t="n">
-        <v>179</v>
+        <v>96.66</v>
       </c>
       <c r="F11" t="n">
         <v>0.3222</v>
@@ -1508,7 +1508,7 @@
         <v>0.0322</v>
       </c>
       <c r="E12" t="n">
-        <v>89.44444444444443</v>
+        <v>48.3</v>
       </c>
       <c r="F12" t="n">
         <v>0.322</v>
@@ -1537,7 +1537,7 @@
         <v>0.03214</v>
       </c>
       <c r="E13" t="n">
-        <v>357.111111111111</v>
+        <v>192.84</v>
       </c>
       <c r="F13" t="n">
         <v>0.3214</v>
@@ -1566,7 +1566,7 @@
         <v>0.03214</v>
       </c>
       <c r="E14" t="n">
-        <v>388.3583333333333</v>
+        <v>209.7135</v>
       </c>
       <c r="F14" t="n">
         <v>0.3214</v>
@@ -2434,7 +2434,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>908000</v>
+        <v>454000</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -2450,7 +2450,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>100000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -2466,7 +2466,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>348000</v>
+        <v>261000</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -2474,7 +2474,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>80000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2482,7 +2482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>80000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2506,7 +2506,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>120000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2514,7 +2514,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>60000</v>
+        <v>40000</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -2522,7 +2522,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>80000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -2530,7 +2530,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>261000</v>
+        <v>174000</v>
       </c>
     </row>
   </sheetData>
@@ -2598,7 +2598,7 @@
         <v>9</v>
       </c>
       <c r="B2" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -2692,7 +2692,7 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -3021,7 +3021,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -3068,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -3115,7 +3115,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -3162,7 +3162,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
